--- a/Resultados/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_14%_6m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_984C2C4D655427EA009396A0FA38A357F2ED57BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF522BB0-2CED-4847-86B6-113D4F4749C4}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_984C2C4D655427EA009396A0FA38A357F2ED57BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF6A973-8AA1-43E5-9355-E6DD75EFDB65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t>ield_100ha_100ha_14%_6m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -2501,13 +2504,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08130081-F1C7-46FF-8075-80356AA65B95}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2535,8 +2538,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>1.2516</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>1.3769999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>1.4584999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>1.5176000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>1.5644999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>1.6294999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>1.6531</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>1.6738999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>1.6896</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>1.7033</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>1.7149000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>1.7246999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
